--- a/mbs-perturbation/chatty/svm/chatty-svm-default-results.xlsx
+++ b/mbs-perturbation/chatty/svm/chatty-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.1764705882352942</v>
       </c>
       <c r="E2" t="n">
-        <v>0.596195652173913</v>
+        <v>0.7081521739130434</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4314574314574314</v>
+        <v>0.9090909090909092</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.344927536231884</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9768115942028985</v>
+        <v>0.9869565217391304</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.03529411764705883</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6698784428132254</v>
+        <v>0.9008399209486166</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chatty/svm/chatty-svm-default-results.xlsx
+++ b/mbs-perturbation/chatty/svm/chatty-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1764705882352942</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7081521739130434</v>
+        <v>0.7793269230769231</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9090909090909092</v>
+        <v>0.9120192307692307</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9</v>
+        <v>0.9845410628019324</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9951690821256038</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9869565217391304</v>
+        <v>0.9990338164251207</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03529411764705883</v>
+        <v>0.3174603174603175</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9008399209486166</v>
+        <v>0.9340180230397621</v>
       </c>
     </row>
   </sheetData>
